--- a/PrintIngredientsList/Database/商品.xlsx
+++ b/PrintIngredientsList/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\Module\PrintIngredientsList_Module_Layout\PrintIngredientsList\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EEE733-2DD0-4D3F-98E8-5793CD150FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="300" windowWidth="23775" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+  <si>
+    <t>分類</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -50,7 +53,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>製造者</t>
@@ -59,77 +62,95 @@
     <t>欄外</t>
   </si>
   <si>
+    <t>焼菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ヤキガシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生米パン</t>
+    <rPh sb="0" eb="2">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -137,19 +158,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -159,93 +180,101 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -259,7 +288,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -273,7 +302,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -293,7 +322,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -301,7 +330,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -309,7 +338,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -317,7 +346,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -334,31 +363,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -366,7 +395,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -374,7 +403,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -382,11 +411,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -394,28 +423,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>熱量</t>
@@ -446,18 +475,38 @@
   </si>
   <si>
     <t>2ｇ</t>
+  </si>
+  <si>
+    <t>玄米クロッカン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2個</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -515,8 +564,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,1181 +853,1297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="100.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="37.5">
+      <c r="A5">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="93.75">
+      <c r="A6">
+        <v>1015</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="37.5">
-      <c r="A4">
-        <v>1014</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75">
+      <c r="A7">
+        <v>1016</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
-      <c r="A5">
-        <v>1015</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="75">
-      <c r="A6">
-        <v>1016</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>72</v>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1004</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="76.5" customHeight="1">
       <c r="A3">
         <v>1005</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="76.5" customHeight="1">
       <c r="A4">
         <v>1006</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="93.75">
       <c r="A3">
         <v>1008</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
       <c r="A4">
         <v>1009</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="93.75">
       <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="131.25">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="131.25">
       <c r="A6">
         <v>1017</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="93.75">
       <c r="A7">
         <v>1018</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="93.75">
       <c r="A8">
         <v>1019</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="112.5">
+        <v>77</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="112.5">
       <c r="A9">
         <v>1020</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1011</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75">
       <c r="A3">
         <v>1012</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1013</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PrintIngredientsList/Database/商品.xlsx
+++ b/PrintIngredientsList/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7911EA7-B9A0-452E-AF49-11FE372ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25425" windowHeight="13560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="マフィン" sheetId="4" r:id="rId3"/>
     <sheet name="ラスク" sheetId="6" r:id="rId4"/>
     <sheet name="ケーキ" sheetId="7" r:id="rId5"/>
+    <sheet name="玄ノーラ" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
-  <si>
-    <t>分類</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
   <si>
     <t>名称</t>
   </si>
@@ -53,7 +51,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>製造者</t>
@@ -62,95 +60,77 @@
     <t>欄外</t>
   </si>
   <si>
-    <t>焼菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ヤキガシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マフィン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生米パン</t>
-    <rPh sb="0" eb="2">
-      <t>ナマゴメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -158,19 +138,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -180,101 +160,93 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスク</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -288,7 +260,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -302,7 +274,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -322,7 +294,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -330,7 +302,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -338,7 +310,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -346,7 +318,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -363,31 +335,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -395,7 +367,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -403,7 +375,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -411,11 +383,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -423,28 +395,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>熱量</t>
@@ -478,35 +450,79 @@
   </si>
   <si>
     <t>玄米クロッカン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2個</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(プレーン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
+(一部にアーモンド、カシューナッツを含む)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーモンド、カシューナッツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(カカオ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
+(一部にアーモンドを含む)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(おつまみ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用。
+※食塩は天日塩を使用。
+※塩麹のお米は自然栽培です。
+※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,15 +580,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -853,1297 +871,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="100.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="1">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1">
         <v>30</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="37.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="37.5">
       <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>30</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="93.75">
       <c r="A6">
         <v>1015</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
         <v>30</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75">
       <c r="A7">
         <v>1016</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
         <v>30</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="56.25">
       <c r="A2">
         <v>1004</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="76.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="76.5" customHeight="1">
       <c r="A3">
         <v>1005</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="76.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="76.5" customHeight="1">
       <c r="A4">
         <v>1006</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="93.75">
       <c r="A3">
         <v>1008</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75">
       <c r="A4">
         <v>1009</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="93.75">
       <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="131.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="131.25">
       <c r="A6">
         <v>1017</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="93.75">
       <c r="A7">
         <v>1018</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="93.75">
       <c r="A8">
         <v>1019</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="112.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="112.5">
       <c r="A9">
         <v>1020</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="56.25">
       <c r="A2">
         <v>1011</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
         <v>30</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="75">
       <c r="A3">
         <v>1012</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1013</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A5BE2-7109-42BB-8B39-0967B0C52C83}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="131.25">
+      <c r="A2">
+        <v>1023</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="112.5">
+      <c r="A3">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="112.5">
+      <c r="A4">
+        <v>1025</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PrintIngredientsList/Database/商品.xlsx
+++ b/PrintIngredientsList/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7911EA7-B9A0-452E-AF49-11FE372ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25425" windowHeight="13560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="マフィン" sheetId="4" r:id="rId3"/>
     <sheet name="ラスク" sheetId="6" r:id="rId4"/>
     <sheet name="ケーキ" sheetId="7" r:id="rId5"/>
-    <sheet name="玄ノーラ" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+  <si>
+    <t>分類</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -51,7 +53,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>製造者</t>
@@ -60,77 +62,95 @@
     <t>欄外</t>
   </si>
   <si>
+    <t>焼菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ヤキガシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生米パン</t>
+    <rPh sb="0" eb="2">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -138,19 +158,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -160,93 +180,101 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -260,7 +288,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -274,7 +302,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -294,7 +322,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -302,7 +330,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -310,7 +338,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -318,7 +346,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -335,31 +363,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -367,7 +395,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -375,7 +403,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -383,11 +411,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -395,28 +423,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>熱量</t>
@@ -450,79 +478,35 @@
   </si>
   <si>
     <t>玄米クロッカン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米ノーラ
-(プレーン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
-(一部にアーモンド、カシューナッツを含む)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>45g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アーモンド、カシューナッツ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米ノーラ
-(カカオ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
-(一部にアーモンドを含む)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米ノーラ
-(おつまみ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※玄米は自然栽培米を使用。
-※食塩は天日塩を使用。
-※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,17 +564,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -871,1426 +853,1297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="100.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="37.5">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="37.5">
       <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="93.75">
       <c r="A6">
         <v>1015</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75">
       <c r="A7">
         <v>1016</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1004</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="76.5" customHeight="1">
       <c r="A3">
         <v>1005</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="76.5" customHeight="1">
       <c r="A4">
         <v>1006</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="93.75">
       <c r="A3">
         <v>1008</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
       <c r="A4">
         <v>1009</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="93.75">
       <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="131.25">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="131.25">
       <c r="A6">
         <v>1017</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="93.75">
       <c r="A7">
         <v>1018</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="93.75">
       <c r="A8">
         <v>1019</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="112.5">
+        <v>77</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="112.5">
       <c r="A9">
         <v>1020</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1011</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75">
       <c r="A3">
         <v>1012</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1013</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A5BE2-7109-42BB-8B39-0967B0C52C83}">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="131.25">
-      <c r="A2">
-        <v>1023</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="112.5">
-      <c r="A3">
-        <v>1024</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="112.5">
-      <c r="A4">
-        <v>1025</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PrintIngredientsList/Database/商品.xlsx
+++ b/PrintIngredientsList/Database/商品.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\(00_MyDevelopments)\01_最新モジュール\PrintIngredientsList_Module_Layout\PrintIngredientsList\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFC11A-3D52-4ACB-9BBA-EB9D79E79BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="864" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
     <sheet name="生米パン" sheetId="3" r:id="rId2"/>
-    <sheet name="マフィン" sheetId="4" r:id="rId3"/>
-    <sheet name="ラスク" sheetId="6" r:id="rId4"/>
-    <sheet name="ケーキ" sheetId="7" r:id="rId5"/>
+    <sheet name="ピザ" sheetId="10" r:id="rId3"/>
+    <sheet name="マフィン" sheetId="4" r:id="rId4"/>
+    <sheet name="ラスク" sheetId="6" r:id="rId5"/>
+    <sheet name="ケーキ" sheetId="7" r:id="rId6"/>
+    <sheet name="玄ノーラ" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="104">
   <si>
     <t>分類</t>
   </si>
@@ -60,13 +62,6 @@
   </si>
   <si>
     <t>欄外</t>
-  </si>
-  <si>
-    <t>焼菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ヤキガシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ココナッツスティック</t>
@@ -116,17 +111,6 @@
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マフィン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生米パン</t>
-    <rPh sb="0" eb="2">
-      <t>ナマゴメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -183,15 +167,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスク</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -486,6 +462,165 @@
   </si>
   <si>
     <t>2個</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、さつまいも、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(チョコチップ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機チョコチップ、有機ファットスプレッド、食塩、有機シナモンパウダー、有機ナツメグパウダー/ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
+(一部にアーモンド、カシューナッツを含む)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>45g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーモンド、カシューナッツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(カカオ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
+(一部にアーモンドを含む)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(おつまみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用。※食塩は天日塩を使用。※塩麹のお米は自然栽培です。※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(クランベリーとアーモンド)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機クランベリー、有機アーモンド、きび糖、酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米　生米ピザ
+(コーンとたまねぎ)</t>
+    <rPh sb="0" eb="4">
+      <t>ハツガゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、ヴィーガンチーズ（有機豆乳、有機ココナッツオイル、有機レモン果汁、食塩）、トマトソース（有機トマトペースト、玉ねぎ、ココナッツオイル、オレガノ、食塩、ニンニク）、とうもろこし、ココナッツオイル、たまねぎ、ピーマン、きび糖、酵母、食塩</t>
+    <rPh sb="18" eb="20">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷凍</t>
+    <rPh sb="0" eb="2">
+      <t>レイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(レーズン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーモンド、クランベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーク オ フリュイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有機豆乳（国産）、玄米（福岡県産）、有機レーズン、有機ココナッツオイル、有機アーモンド、全粒ソルガム粉、有機ラム酒、有機クランベリー、有機あんず、きび糖、有機いちじく、有機メープルシロップ、有機片栗粉、食塩、有機シナモンパウダー　/ ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>島バナナのココアパウンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>島バナナ（鹿児島県産）、国産有機豆乳、玄米（福岡県産）、有機レーズン、有機ココナッツオイル、有機アーモンド、全粒ソルガム粉、有機メープルシロップ、有機ココア、有機片栗粉、有機ラム酒、食塩、有機シナモンパウダー　/ ベーキングパウダー（アルミフリー）</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -556,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -573,6 +708,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -856,23 +997,23 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -881,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -902,298 +1043,288 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="37.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36">
       <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="93.75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="72">
       <c r="A6">
         <v>1015</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="72">
       <c r="A7">
         <v>1016</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1204,26 +1335,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1232,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1253,160 +1385,212 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54">
       <c r="A2">
-        <v>1004</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="76.5" customHeight="1">
       <c r="A3">
-        <v>1005</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="76.5" customHeight="1">
       <c r="A4">
-        <v>1006</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>1502</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="54">
+      <c r="A5">
+        <v>1503</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="54">
+      <c r="A6">
+        <v>1504</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1416,27 +1600,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09734631-23FD-447E-B798-9C34C6642630}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1445,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1466,396 +1650,55 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="144">
       <c r="A2">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="93.75">
-      <c r="A3">
-        <v>1008</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
-      <c r="A4">
-        <v>1009</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="93.75">
-      <c r="A5">
-        <v>1010</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="131.25">
-      <c r="A6">
-        <v>1017</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="93.75">
-      <c r="A7">
-        <v>1018</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="93.75">
-      <c r="A8">
-        <v>1019</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="112.5">
-      <c r="A9">
-        <v>1020</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1864,27 +1707,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1893,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1914,113 +1757,423 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2">
-        <v>1011</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>3001</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90">
       <c r="A3">
-        <v>1012</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72">
+      <c r="A4">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="108">
+      <c r="A5">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="108">
+      <c r="A6">
+        <v>3005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90">
+      <c r="A7">
+        <v>3006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="72">
+      <c r="A8">
+        <v>3007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90">
+      <c r="A9">
+        <v>3008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="108">
+      <c r="A10">
+        <v>3009</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2030,27 +2183,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2059,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -2080,70 +2233,443 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54">
       <c r="A2">
-        <v>1013</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>3500</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="72">
+      <c r="A3">
+        <v>3501</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
+      <c r="A2">
+        <v>4000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="144">
+      <c r="A3">
+        <v>4001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="126">
+      <c r="A4">
+        <v>4002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B6D177-F019-4D6C-AE35-7B9F8FDEE3A5}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="150.6" customHeight="1">
+      <c r="A2" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="108">
+      <c r="A3" s="1">
+        <v>4501</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="144.6" customHeight="1">
+      <c r="A4" s="1">
+        <v>4502</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>